--- a/Old/Workbook_Model_Testing.xlsx
+++ b/Old/Workbook_Model_Testing.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akiranagamori/Documents/GitHub/Twitch-Based-Muscle-Model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akiranagamori/Documents/GitHub/Twitch-Based-Muscle-Model/Old/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439C6677-FD86-8244-8F96-944FD4AFD3B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28260" windowHeight="17540" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v3" sheetId="1" r:id="rId1"/>
@@ -23,10 +24,16 @@
     <sheet name="v11_0.8" sheetId="9" r:id="rId9"/>
     <sheet name="v12" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -173,7 +180,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -769,7 +776,7 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="388">
+  <dxfs count="340">
     <dxf>
       <font>
         <color theme="4"/>
@@ -1132,480 +1139,27 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FF002060"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4430,6 +3984,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4697,7 +4254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5418,7 +4975,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B17:I20">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B17:I20">
     <sortCondition ref="E17:E20"/>
   </sortState>
   <mergeCells count="1">
@@ -5429,7 +4986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AD41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7838,6 +7395,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="M3:N3"/>
@@ -7846,198 +7408,193 @@
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:T2"/>
   </mergeCells>
   <conditionalFormatting sqref="N4:N41 P4:P41 R4:R41 T4:T41">
-    <cfRule type="cellIs" dxfId="95" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4:V41">
-    <cfRule type="cellIs" dxfId="89" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="43" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="45" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X4:X41">
-    <cfRule type="cellIs" dxfId="83" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="40" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="42" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C41">
-    <cfRule type="cellIs" dxfId="77" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="lessThan">
       <formula>"$B$3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="lessThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D31 D33:D41">
-    <cfRule type="cellIs" dxfId="71" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E31 E33:G41">
-    <cfRule type="cellIs" dxfId="67" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H31 H33:H41">
-    <cfRule type="cellIs" dxfId="63" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="greaterThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I31 I33:I41">
-    <cfRule type="cellIs" dxfId="59" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J31 J33:J41">
-    <cfRule type="cellIs" dxfId="55" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="lessThan">
       <formula>$J$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="greaterThan">
       <formula>$J$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K31 K33:K41">
-    <cfRule type="cellIs" dxfId="51" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="lessThan">
       <formula>$K$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="greaterThan">
       <formula>$K$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L31 L33:L41">
-    <cfRule type="cellIs" dxfId="47" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="lessThan">
       <formula>$L$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="greaterThan">
       <formula>$L$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="43" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="39" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="35" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="greaterThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="cellIs" dxfId="31" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
       <formula>$J$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
       <formula>$J$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
       <formula>$K$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
       <formula>$K$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>$L$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
       <formula>$L$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F31">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G31">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8046,7 +7603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9108,7 +8665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10608,13 +10165,13 @@
     <mergeCell ref="N3:O3"/>
   </mergeCells>
   <conditionalFormatting sqref="K4:K19 M4:M19 O4:O19 Q4:Q19">
-    <cfRule type="cellIs" dxfId="387" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="339" priority="1" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="338" priority="2" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="337" priority="3" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10623,7 +10180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA66"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -14743,12 +14300,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="T2:U2"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="P2:Q2"/>
@@ -14758,232 +14314,233 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:S42"/>
   </mergeCells>
   <conditionalFormatting sqref="K4:K41 M4:M41 O4:O41 Q4:Q41 M43:M66 O43:O66 Q43:Q66 K43:K66">
-    <cfRule type="cellIs" dxfId="384" priority="55" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="336" priority="55" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="383" priority="56" operator="lessThan">
+    <cfRule type="cellIs" dxfId="335" priority="56" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="334" priority="57" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S41 S43:S66">
-    <cfRule type="cellIs" dxfId="381" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="333" priority="52" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="332" priority="53" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="331" priority="54" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4:U41 U43:U66">
-    <cfRule type="cellIs" dxfId="378" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="330" priority="49" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="50" operator="lessThan">
+    <cfRule type="cellIs" dxfId="329" priority="50" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="328" priority="51" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B41 B43:B48 B50:B66">
-    <cfRule type="cellIs" dxfId="375" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="327" priority="46" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="326" priority="47" operator="lessThan">
       <formula>"$B$3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="325" priority="48" operator="lessThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C31 C33:C41 C43:C48 C50:C66">
-    <cfRule type="cellIs" dxfId="372" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="324" priority="44" operator="lessThan">
       <formula>$C$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="371" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="323" priority="45" operator="greaterThan">
       <formula>$C$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D31 D33:D41 D43:D48 D50:D66">
-    <cfRule type="cellIs" dxfId="370" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="42" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="321" priority="43" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E31 E33:E41 E43:E48 E50:E66">
-    <cfRule type="cellIs" dxfId="368" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="320" priority="40" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="319" priority="41" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F31 F33:F41 F43:F48 F50:F66">
-    <cfRule type="cellIs" dxfId="366" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="38" operator="lessThan">
       <formula>$F$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="317" priority="39" operator="greaterThan">
       <formula>$F$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G31 G33:G41 G43:G48 G50:G66">
-    <cfRule type="cellIs" dxfId="364" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="36" operator="lessThan">
       <formula>$G$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="315" priority="37" operator="greaterThan">
       <formula>$G$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H31 H33:H41 H43:H48 H50:H66">
-    <cfRule type="cellIs" dxfId="362" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="34" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="313" priority="35" operator="greaterThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I31 I33:I41 I43:I48 I50:I66">
-    <cfRule type="cellIs" dxfId="360" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="312" priority="32" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="359" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="311" priority="33" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="358" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="30" operator="lessThan">
       <formula>$C$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="309" priority="31" operator="greaterThan">
       <formula>$C$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="356" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="28" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="307" priority="29" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="354" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="26" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="305" priority="27" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="352" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="24" operator="lessThan">
       <formula>$F$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="303" priority="25" operator="greaterThan">
       <formula>$F$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="350" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="22" operator="lessThan">
       <formula>$G$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="301" priority="23" operator="greaterThan">
       <formula>$G$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="348" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="20" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="347" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="299" priority="21" operator="greaterThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="cellIs" dxfId="346" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="18" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="297" priority="19" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="cellIs" dxfId="344" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="296" priority="15" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="16" operator="lessThan">
       <formula>"$B$3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="17" operator="lessThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="341" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="13" operator="lessThan">
       <formula>$C$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="292" priority="14" operator="greaterThan">
       <formula>$C$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="339" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="11" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="290" priority="12" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="337" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="9" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="288" priority="10" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" dxfId="335" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="7" operator="lessThan">
       <formula>$F$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="286" priority="8" operator="greaterThan">
       <formula>$F$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="cellIs" dxfId="333" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="5" operator="lessThan">
       <formula>$G$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="284" priority="6" operator="greaterThan">
       <formula>$G$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="331" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="3" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="282" priority="4" operator="greaterThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="cellIs" dxfId="329" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="1" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="280" priority="2" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14993,7 +14550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
@@ -16983,6 +16540,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="I3:J3"/>
@@ -16992,157 +16554,152 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="J4:J41 L4:L41 N4:N41 P4:P41">
-    <cfRule type="cellIs" dxfId="327" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="279" priority="38" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="39" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="277" priority="40" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:R41">
-    <cfRule type="cellIs" dxfId="324" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="276" priority="35" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="323" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="36" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="274" priority="37" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:T41">
-    <cfRule type="cellIs" dxfId="321" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="273" priority="32" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="33" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="271" priority="34" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B41">
-    <cfRule type="cellIs" dxfId="318" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="270" priority="29" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="30" operator="lessThan">
       <formula>"$B$3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="31" operator="lessThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C31 C33:C41">
-    <cfRule type="cellIs" dxfId="315" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="27" operator="lessThan">
       <formula>$C$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="266" priority="28" operator="greaterThan">
       <formula>$C$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D31 D33:D41">
-    <cfRule type="cellIs" dxfId="313" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="25" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="264" priority="26" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E31 E33:E41">
-    <cfRule type="cellIs" dxfId="311" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="23" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="262" priority="24" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F31 F33:F41">
-    <cfRule type="cellIs" dxfId="309" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="21" operator="lessThan">
       <formula>$F$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="260" priority="22" operator="greaterThan">
       <formula>$F$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:G41">
-    <cfRule type="cellIs" dxfId="307" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="19" operator="lessThan">
       <formula>$G$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="258" priority="20" operator="greaterThan">
       <formula>$G$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G31">
-    <cfRule type="cellIs" dxfId="305" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="17" operator="lessThan">
       <formula>$G$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="256" priority="18" operator="greaterThan">
       <formula>$G$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H31 H33:H41">
-    <cfRule type="cellIs" dxfId="303" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="15" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="254" priority="16" operator="greaterThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="301" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="13" operator="lessThan">
       <formula>$C$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="252" priority="14" operator="greaterThan">
       <formula>$C$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="299" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="11" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="250" priority="12" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="297" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="9" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="248" priority="10" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="295" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="7" operator="lessThan">
       <formula>$F$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="246" priority="8" operator="greaterThan">
       <formula>$F$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="293" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="3" operator="lessThan">
       <formula>$G$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="244" priority="4" operator="greaterThan">
       <formula>$G$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="291" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="1" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="242" priority="2" operator="greaterThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17151,7 +16708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AB66"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
@@ -20321,11 +19878,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="K3:L3"/>
@@ -20335,168 +19887,173 @@
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="I33:I66">
-    <cfRule type="cellIs" dxfId="289" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="1" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="240" priority="2" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L66 N4:N66 P4:P66 R4:R66">
-    <cfRule type="cellIs" dxfId="287" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="239" priority="38" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="39" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="237" priority="40" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:T66">
-    <cfRule type="cellIs" dxfId="284" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="236" priority="35" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="36" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="234" priority="37" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4:V66">
-    <cfRule type="cellIs" dxfId="281" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="233" priority="32" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="33" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="231" priority="34" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B66">
-    <cfRule type="cellIs" dxfId="278" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="230" priority="29" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="30" operator="lessThan">
       <formula>"$B$3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="31" operator="lessThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C31 C33:C66">
-    <cfRule type="cellIs" dxfId="275" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="27" operator="lessThan">
       <formula>$C$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="226" priority="28" operator="greaterThan">
       <formula>$C$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D31 D33:D66">
-    <cfRule type="cellIs" dxfId="273" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="25" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="224" priority="26" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E31 E33:E66">
-    <cfRule type="cellIs" dxfId="271" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="23" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="222" priority="24" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F31 F33:F66">
-    <cfRule type="cellIs" dxfId="269" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="21" operator="lessThan">
       <formula>$F$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="220" priority="22" operator="greaterThan">
       <formula>$F$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H31 G33:H66">
-    <cfRule type="cellIs" dxfId="267" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="19" operator="lessThan">
       <formula>$G$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="218" priority="20" operator="greaterThan">
       <formula>$G$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I31">
-    <cfRule type="cellIs" dxfId="265" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="17" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="216" priority="18" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J31 J33:J66">
-    <cfRule type="cellIs" dxfId="263" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="15" operator="lessThan">
       <formula>$J$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="214" priority="16" operator="greaterThan">
       <formula>$J$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="261" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="13" operator="lessThan">
       <formula>$C$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="212" priority="14" operator="greaterThan">
       <formula>$C$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="259" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="11" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="210" priority="12" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="257" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="9" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="208" priority="10" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="255" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="7" operator="lessThan">
       <formula>$F$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="206" priority="8" operator="greaterThan">
       <formula>$F$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:H32">
-    <cfRule type="cellIs" dxfId="253" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="5" operator="lessThan">
       <formula>$G$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="204" priority="6" operator="greaterThan">
       <formula>$G$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="cellIs" dxfId="251" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="3" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="202" priority="4" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="249" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="41" operator="lessThan">
       <formula>$J$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="200" priority="42" operator="greaterThan">
       <formula>$J$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20505,11 +20062,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21485,7 +21042,7 @@
       <c r="AB15" s="24"/>
       <c r="AC15" s="24"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35">
         <v>13</v>
       </c>
@@ -22914,11 +22471,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="M3:N3"/>
@@ -22928,192 +22480,197 @@
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="S2:T2"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <conditionalFormatting sqref="N4:N41 P4:P41 R4:R41 T4:T41">
-    <cfRule type="cellIs" dxfId="247" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="199" priority="46" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="47" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="197" priority="48" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4:V41">
-    <cfRule type="cellIs" dxfId="244" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="196" priority="43" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="44" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="194" priority="45" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X4:X41">
-    <cfRule type="cellIs" dxfId="241" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="193" priority="40" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="41" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="191" priority="42" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C41">
-    <cfRule type="cellIs" dxfId="238" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="190" priority="37" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="38" operator="lessThan">
       <formula>"$B$3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="39" operator="lessThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D31 D33:D41">
-    <cfRule type="cellIs" dxfId="235" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="35" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="186" priority="36" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E31 E33:G41">
-    <cfRule type="cellIs" dxfId="233" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="33" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="184" priority="34" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H31 H33:H41">
-    <cfRule type="cellIs" dxfId="231" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="31" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="182" priority="32" operator="greaterThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I31 I33:I41">
-    <cfRule type="cellIs" dxfId="229" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="29" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="180" priority="30" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J31 J33:J41">
-    <cfRule type="cellIs" dxfId="227" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="27" operator="lessThan">
       <formula>$J$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="178" priority="28" operator="greaterThan">
       <formula>$J$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K31 K33:K41">
-    <cfRule type="cellIs" dxfId="225" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="25" operator="lessThan">
       <formula>$K$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="176" priority="26" operator="greaterThan">
       <formula>$K$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L31 L33:L41">
-    <cfRule type="cellIs" dxfId="223" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="23" operator="lessThan">
       <formula>$L$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="174" priority="24" operator="greaterThan">
       <formula>$L$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="221" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="21" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="172" priority="22" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="219" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="19" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="170" priority="20" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="217" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="17" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="168" priority="18" operator="greaterThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="cellIs" dxfId="215" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="15" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="166" priority="16" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="213" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="13" operator="lessThan">
       <formula>$J$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="164" priority="14" operator="greaterThan">
       <formula>$J$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" dxfId="211" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="11" operator="lessThan">
       <formula>$K$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="162" priority="12" operator="greaterThan">
       <formula>$K$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="209" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="9" operator="lessThan">
       <formula>$L$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="160" priority="10" operator="greaterThan">
       <formula>$L$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F31">
-    <cfRule type="cellIs" dxfId="207" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="7" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="158" priority="8" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="205" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="5" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="156" priority="6" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G31">
-    <cfRule type="cellIs" dxfId="203" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="3" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="154" priority="4" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="201" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="1" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="2" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23122,11 +22679,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:L41"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25322,11 +24879,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="M3:N3"/>
@@ -25336,208 +24888,213 @@
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="S2:T2"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <conditionalFormatting sqref="N4:N41 R4:R41 T4:T41 P4:P41">
-    <cfRule type="cellIs" dxfId="199" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="151" priority="50" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="51" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="52" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4:V41">
-    <cfRule type="cellIs" dxfId="196" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="148" priority="47" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="48" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="146" priority="49" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X4:X41">
-    <cfRule type="cellIs" dxfId="193" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="145" priority="44" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="45" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="143" priority="46" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B41">
-    <cfRule type="cellIs" dxfId="190" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="142" priority="41" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="42" operator="lessThan">
       <formula>"$B$3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="43" operator="lessThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D31 D33:D41">
-    <cfRule type="cellIs" dxfId="187" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="39" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="138" priority="40" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E31 E33:G41">
-    <cfRule type="cellIs" dxfId="185" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="37" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="136" priority="38" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H31 H33:H41">
-    <cfRule type="cellIs" dxfId="183" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="35" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="134" priority="36" operator="greaterThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I31 I33:I41">
-    <cfRule type="cellIs" dxfId="181" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="33" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="34" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J31 J33:J41">
-    <cfRule type="cellIs" dxfId="179" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="31" operator="lessThan">
       <formula>$J$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="130" priority="32" operator="greaterThan">
       <formula>$J$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K31 K33:K41">
-    <cfRule type="cellIs" dxfId="177" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="29" operator="lessThan">
       <formula>$K$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="128" priority="30" operator="greaterThan">
       <formula>$K$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L31 L33:L41">
-    <cfRule type="cellIs" dxfId="175" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="27" operator="lessThan">
       <formula>$L$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="126" priority="28" operator="greaterThan">
       <formula>$L$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="173" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="25" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="124" priority="26" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="171" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="23" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="122" priority="24" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="169" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="21" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="22" operator="greaterThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="cellIs" dxfId="167" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="19" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="118" priority="20" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="165" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="17" operator="lessThan">
       <formula>$J$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="116" priority="18" operator="greaterThan">
       <formula>$J$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" dxfId="163" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="15" operator="lessThan">
       <formula>$K$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="16" operator="greaterThan">
       <formula>$K$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="161" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="13" operator="lessThan">
       <formula>$L$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="14" operator="greaterThan">
       <formula>$L$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F31">
-    <cfRule type="cellIs" dxfId="159" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="11" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="12" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="157" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="9" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="10" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G31">
-    <cfRule type="cellIs" dxfId="155" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="7" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="8" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="153" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="5" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="6" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C31 C33:C41">
-    <cfRule type="cellIs" dxfId="151" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="3" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="4" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="149" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="1" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="2" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25546,7 +25103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AF41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28067,11 +27624,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
@@ -28082,208 +27634,213 @@
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="S2:T2"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <conditionalFormatting sqref="N4:N41 R4:R41 T4:T41 P4:P41">
-    <cfRule type="cellIs" dxfId="147" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="50" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="51" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="52" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4:V41">
-    <cfRule type="cellIs" dxfId="144" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="47" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="48" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="49" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X4:Z41">
-    <cfRule type="cellIs" dxfId="141" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="44" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="45" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="46" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B41">
-    <cfRule type="cellIs" dxfId="138" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="41" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="42" operator="lessThan">
       <formula>"$B$3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="43" operator="lessThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D31 D33:D41">
-    <cfRule type="cellIs" dxfId="135" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="39" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="40" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E31 E33:G41">
-    <cfRule type="cellIs" dxfId="133" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="37" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="38" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H31 H33:H41">
-    <cfRule type="cellIs" dxfId="131" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="35" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="36" operator="greaterThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I31 I33:I41">
-    <cfRule type="cellIs" dxfId="129" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="33" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="34" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J31 J33:J41">
-    <cfRule type="cellIs" dxfId="127" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="31" operator="lessThan">
       <formula>$J$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="32" operator="greaterThan">
       <formula>$J$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K31 K33:K41">
-    <cfRule type="cellIs" dxfId="125" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="29" operator="lessThan">
       <formula>$K$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="30" operator="greaterThan">
       <formula>$K$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L31 L33:L41">
-    <cfRule type="cellIs" dxfId="123" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="27" operator="lessThan">
       <formula>$L$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="28" operator="greaterThan">
       <formula>$L$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="121" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="25" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="26" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="119" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="23" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="24" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="117" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="21" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="22" operator="greaterThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="cellIs" dxfId="115" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="19" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="20" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="113" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="17" operator="lessThan">
       <formula>$J$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="18" operator="greaterThan">
       <formula>$J$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" dxfId="111" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="15" operator="lessThan">
       <formula>$K$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="16" operator="greaterThan">
       <formula>$K$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="109" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="13" operator="lessThan">
       <formula>$L$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="14" operator="greaterThan">
       <formula>$L$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F31">
-    <cfRule type="cellIs" dxfId="107" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="11" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="12" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="105" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="9" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="10" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G31">
-    <cfRule type="cellIs" dxfId="103" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="7" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="8" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="101" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="5" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="6" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C31 C33:C41">
-    <cfRule type="cellIs" dxfId="99" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="97" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
